--- a/hasil.xlsx
+++ b/hasil.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DE-Crypto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="340" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="13320" yWindow="345" windowWidth="25605" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -18,8 +24,210 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wrismawan</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>wrismawan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+panjang plain text</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
   <si>
     <t>Panjang teks</t>
   </si>
@@ -343,6 +551,42 @@
   </si>
   <si>
     <t>1, 8, 12, 11, 13, 14, 10, 7, 0, 6, 5, 4, 3, 2, 9</t>
+  </si>
+  <si>
+    <t>DATA 1</t>
+  </si>
+  <si>
+    <t>Percobaan</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Recovered Key</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Kunci Fitness</t>
+  </si>
+  <si>
+    <t>Kunci</t>
+  </si>
+  <si>
+    <t>Panjang Plaintext</t>
+  </si>
+  <si>
+    <t>DATA 2 : Teknologi</t>
+  </si>
+  <si>
+    <t>9/9</t>
+  </si>
+  <si>
+    <t>DATA 3</t>
+  </si>
+  <si>
+    <t>DATA 4</t>
   </si>
 </sst>
 </file>
@@ -352,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,16 +636,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,6 +768,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,7 +848,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -588,6 +903,92 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -642,6 +1043,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -969,17 +1378,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" thickBot="1">
+    <row r="1" spans="1:15" ht="32.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1019,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="31" thickBot="1">
+    <row r="2" spans="1:15" ht="32.25" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="46" thickBot="1">
+    <row r="3" spans="1:15" ht="32.25" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1514,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1558,8 @@
         <v>8.5663100000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1"/>
-    <row r="8" spans="1:15" ht="31" thickBot="1">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="8" spans="1:15" ht="32.25" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -1190,7 +1599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="85" thickBot="1">
+    <row r="9" spans="1:15" ht="63.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="46" thickBot="1">
+    <row r="10" spans="1:15" ht="32.25" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1685,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1">
+    <row r="11" spans="1:15" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1320,8 +1729,8 @@
         <v>8.5518600000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1"/>
-    <row r="15" spans="1:15" ht="31" thickBot="1">
+    <row r="14" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="15" spans="1:15" ht="32.25" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -1361,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="31" thickBot="1">
+    <row r="16" spans="1:15" ht="32.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="46" thickBot="1">
+    <row r="17" spans="1:15" ht="32.25" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1854,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" thickBot="1">
+    <row r="18" spans="1:15" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1492,8 +1901,8 @@
     <row r="19" spans="1:15">
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="16" thickBot="1"/>
-    <row r="21" spans="1:15" ht="31" thickBot="1">
+    <row r="20" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="21" spans="1:15" ht="32.25" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -1533,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="31" thickBot="1">
+    <row r="22" spans="1:15" ht="32.25" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="46" thickBot="1">
+    <row r="23" spans="1:15" ht="32.25" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +2028,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" thickBot="1">
+    <row r="24" spans="1:15" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1663,8 +2072,8 @@
         <v>9.8529799999999987</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" thickBot="1"/>
-    <row r="27" spans="1:15" ht="31" thickBot="1">
+    <row r="26" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="27" spans="1:15" ht="32.25" thickBot="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -1706,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="31" thickBot="1">
+    <row r="28" spans="1:15" ht="32.25" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +2159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="46" thickBot="1">
+    <row r="29" spans="1:15" ht="32.25" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +2199,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16" thickBot="1">
+    <row r="30" spans="1:15" ht="16.5" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1834,8 +2243,8 @@
         <v>10.012449999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16" thickBot="1"/>
-    <row r="33" spans="1:15" ht="31" thickBot="1">
+    <row r="32" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="33" spans="1:15" ht="32.25" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -1875,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="31" thickBot="1">
+    <row r="34" spans="1:15" ht="32.25" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +2328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="46" thickBot="1">
+    <row r="35" spans="1:15" ht="32.25" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +2370,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" thickBot="1">
+    <row r="36" spans="1:15" ht="16.5" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -2005,8 +2414,8 @@
         <v>9.4693099999999983</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16" thickBot="1"/>
-    <row r="40" spans="1:15" ht="31" thickBot="1">
+    <row r="39" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="40" spans="1:15" ht="32.25" thickBot="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -2046,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="61" thickBot="1">
+    <row r="41" spans="1:15" ht="63.75" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -2088,7 +2497,7 @@
       </c>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:15" ht="46" thickBot="1">
+    <row r="42" spans="1:15" ht="32.25" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +2537,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16" thickBot="1">
+    <row r="43" spans="1:15" ht="16.5" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2170,8 +2579,8 @@
         <v>10.099944444444443</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16" thickBot="1"/>
-    <row r="46" spans="1:15" ht="31" thickBot="1">
+    <row r="45" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="46" spans="1:15" ht="32.25" thickBot="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>0</v>
@@ -2213,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="61" thickBot="1">
+    <row r="47" spans="1:15" ht="63.75" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2257,7 +2666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="46" thickBot="1">
+    <row r="48" spans="1:15" ht="32.25" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="16" thickBot="1">
+    <row r="49" spans="1:15" ht="16.5" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2343,8 +2752,8 @@
         <v>10.705470000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16" thickBot="1"/>
-    <row r="52" spans="1:15" ht="31" thickBot="1">
+    <row r="51" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="52" spans="1:15" ht="32.25" thickBot="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>0</v>
@@ -2384,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="61" thickBot="1">
+    <row r="53" spans="1:15" ht="63.75" thickBot="1">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
@@ -2428,7 +2837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="46" thickBot="1">
+    <row r="54" spans="1:15" ht="32.25" thickBot="1">
       <c r="A54" s="6" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2879,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16" thickBot="1">
+    <row r="55" spans="1:15" ht="16.5" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -2514,8 +2923,8 @@
         <v>10.83888</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16" thickBot="1"/>
-    <row r="58" spans="1:15" ht="31" thickBot="1">
+    <row r="57" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="58" spans="1:15" ht="32.25" thickBot="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>0</v>
@@ -2555,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="61" thickBot="1">
+    <row r="59" spans="1:15" ht="63.75" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +3008,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="46" thickBot="1">
+    <row r="60" spans="1:15" ht="32.25" thickBot="1">
       <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
@@ -2641,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="16" thickBot="1">
+    <row r="61" spans="1:15" ht="16.5" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
@@ -2694,4 +3103,1206 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="24">
+        <v>980</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="25">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <v>7</v>
+      </c>
+      <c r="K3" s="25">
+        <v>8</v>
+      </c>
+      <c r="L3" s="25">
+        <v>9</v>
+      </c>
+      <c r="M3" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0.94121999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="24">
+        <v>980</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3</v>
+      </c>
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>5</v>
+      </c>
+      <c r="I8" s="25">
+        <v>6</v>
+      </c>
+      <c r="J8" s="25">
+        <v>7</v>
+      </c>
+      <c r="K8" s="25">
+        <v>8</v>
+      </c>
+      <c r="L8" s="25">
+        <v>9</v>
+      </c>
+      <c r="M8" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="24">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0.91631555102899998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="40">
+        <v>2316</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41">
+        <v>2</v>
+      </c>
+      <c r="F13" s="41">
+        <v>3</v>
+      </c>
+      <c r="G13" s="41">
+        <v>4</v>
+      </c>
+      <c r="H13" s="41">
+        <v>5</v>
+      </c>
+      <c r="I13" s="41">
+        <v>6</v>
+      </c>
+      <c r="J13" s="41">
+        <v>7</v>
+      </c>
+      <c r="K13" s="41">
+        <v>8</v>
+      </c>
+      <c r="L13" s="41">
+        <v>9</v>
+      </c>
+      <c r="M13" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="40">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+      <c r="M15" s="42">
+        <v>0.86042024268999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="40">
+        <v>2316</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2</v>
+      </c>
+      <c r="F18" s="41">
+        <v>3</v>
+      </c>
+      <c r="G18" s="41">
+        <v>4</v>
+      </c>
+      <c r="H18" s="41">
+        <v>5</v>
+      </c>
+      <c r="I18" s="41">
+        <v>6</v>
+      </c>
+      <c r="J18" s="41">
+        <v>7</v>
+      </c>
+      <c r="K18" s="34">
+        <v>8</v>
+      </c>
+      <c r="L18" s="41">
+        <v>9</v>
+      </c>
+      <c r="M18" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="40">
+        <v>9</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="H20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="J20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0.89803109111900004</v>
+      </c>
+      <c r="L20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+      <c r="M20" s="42">
+        <v>0.86197693288099997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="30">
+        <v>3812</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>2</v>
+      </c>
+      <c r="F24" s="31">
+        <v>3</v>
+      </c>
+      <c r="G24" s="31">
+        <v>4</v>
+      </c>
+      <c r="H24" s="31">
+        <v>5</v>
+      </c>
+      <c r="I24" s="31">
+        <v>6</v>
+      </c>
+      <c r="J24" s="31">
+        <v>7</v>
+      </c>
+      <c r="K24" s="31">
+        <v>8</v>
+      </c>
+      <c r="L24" s="31">
+        <v>9</v>
+      </c>
+      <c r="M24" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="30">
+        <v>5</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0.66653560355300001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="30">
+        <v>3812</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31">
+        <v>2</v>
+      </c>
+      <c r="F29" s="31">
+        <v>3</v>
+      </c>
+      <c r="G29" s="31">
+        <v>4</v>
+      </c>
+      <c r="H29" s="31">
+        <v>5</v>
+      </c>
+      <c r="I29" s="31">
+        <v>6</v>
+      </c>
+      <c r="J29" s="31">
+        <v>7</v>
+      </c>
+      <c r="K29" s="31">
+        <v>8</v>
+      </c>
+      <c r="L29" s="31">
+        <v>9</v>
+      </c>
+      <c r="M29" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="30">
+        <v>9</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0.67908370563200005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="50">
+        <v>665</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="51">
+        <v>1</v>
+      </c>
+      <c r="E35" s="51">
+        <v>2</v>
+      </c>
+      <c r="F35" s="51">
+        <v>3</v>
+      </c>
+      <c r="G35" s="51">
+        <v>4</v>
+      </c>
+      <c r="H35" s="51">
+        <v>5</v>
+      </c>
+      <c r="I35" s="51">
+        <v>6</v>
+      </c>
+      <c r="J35" s="51">
+        <v>7</v>
+      </c>
+      <c r="K35" s="51">
+        <v>8</v>
+      </c>
+      <c r="L35" s="51">
+        <v>9</v>
+      </c>
+      <c r="M35" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="50">
+        <v>5</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="E37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="F37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="G37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="H37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="I37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="J37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="K37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="L37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+      <c r="M37" s="52">
+        <v>0.66653560355300001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="50">
+        <v>665</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="51">
+        <v>1</v>
+      </c>
+      <c r="E40" s="51">
+        <v>2</v>
+      </c>
+      <c r="F40" s="51">
+        <v>3</v>
+      </c>
+      <c r="G40" s="51">
+        <v>4</v>
+      </c>
+      <c r="H40" s="51">
+        <v>5</v>
+      </c>
+      <c r="I40" s="51">
+        <v>6</v>
+      </c>
+      <c r="J40" s="51">
+        <v>7</v>
+      </c>
+      <c r="K40" s="51">
+        <v>8</v>
+      </c>
+      <c r="L40" s="51">
+        <v>9</v>
+      </c>
+      <c r="M40" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="50">
+        <v>9</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M41" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="F42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="G42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="H42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="I42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="J42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="K42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="L42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+      <c r="M42" s="52">
+        <v>0.67908370563200005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>